--- a/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF6E96B-D772-446D-8023-FD323E106ACE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D57C7-4FB6-4959-8BCB-8DF862B9E6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9838,10 +9838,10 @@
   <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11795,7 +11795,7 @@
         <v>7</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>7</v>

--- a/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7D57C7-4FB6-4959-8BCB-8DF862B9E6A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A190B-27CC-4002-A265-D5FC69D52C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9838,10 +9838,10 @@
   <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="R147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J30" sqref="J30"/>
+      <selection pane="bottomRight" activeCell="U149" sqref="U149:U150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15938,10 +15938,34 @@
       <c r="B149" s="14" t="s">
         <v>297</v>
       </c>
+      <c r="Q149" s="21">
+        <v>0</v>
+      </c>
+      <c r="R149" s="21">
+        <v>0</v>
+      </c>
+      <c r="S149" s="21">
+        <v>-2.5</v>
+      </c>
+      <c r="U149" s="21">
+        <v>-0.9</v>
+      </c>
     </row>
     <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B150" s="14" t="s">
         <v>300</v>
+      </c>
+      <c r="Q150" s="21">
+        <v>0</v>
+      </c>
+      <c r="R150" s="21">
+        <v>0</v>
+      </c>
+      <c r="S150" s="21">
+        <v>-2.5</v>
+      </c>
+      <c r="U150" s="21">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="151" spans="1:26" x14ac:dyDescent="0.25">

--- a/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDC-work\Approach_v2_June2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A190B-27CC-4002-A265-D5FC69D52C2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649087D-C7F3-40B4-AF61-727C1BC6D4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9838,10 +9838,10 @@
   <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="R147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U149" sqref="U149:U150"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -13644,7 +13644,7 @@
         <v>2060</v>
       </c>
       <c r="E85" s="5">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="F85" s="5">
         <v>2050</v>

--- a/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1649087D-C7F3-40B4-AF61-727C1BC6D4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19E420-3A90-413F-9750-EA981720040E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13644,7 +13644,7 @@
         <v>2060</v>
       </c>
       <c r="E85" s="5">
-        <v>2040</v>
+        <v>2050</v>
       </c>
       <c r="F85" s="5">
         <v>2050</v>

--- a/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
+++ b/data/NDCdata_As12Jun2024_Upd12Jun2024_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktibrewa\Documents\GitHub\demo01\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF19E420-3A90-413F-9750-EA981720040E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDCED5C-A227-477F-8A0F-B38656723B5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19392" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9838,10 +9838,10 @@
   <dimension ref="A1:Z183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
